--- a/src/assets/policy_predicate_mapping.xlsx
+++ b/src/assets/policy_predicate_mapping.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brian.anderson/Dev/SE_Apps/impervaapi/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brian.anderson/Dev/GSA/apps/imperva-web-api-composer/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A96FF398-13F7-594B-AE09-47B8B2BA7F9C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Predicate Lists" sheetId="2" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Predicate Lists'!$A$1:$B$136</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Predicate Mapping'!$A$1:$G$84</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -893,17 +894,6 @@
 </t>
   </si>
   <si>
-    <t>{
-   "api_id":"20381",
-   "api_key":"a8e60b51-bc48-42fd-b1e5-a2104e5ad840",
-   "site_id":"48295835",
-   "name":"Validation Policy",
-   "action":"RULE_ACTION_ALERT",
-   "filter":"URL contains \"/test\"  &amp;amp; ParamValue contains {\"testParam\";\"testVal\"} &amp;amp; HeaderValue contains {\"headerName\";\"testVal\"}"
-}
-curl 'https://my.incapsula.com/api/prov/v1/sites/incapRules/add' --data 'api_id=20381&amp;api_key=a8e60b51-bc48-42fd-b1e5-a2104e5ad840&amp;site_id=48295835&amp;name=Validation Policy&amp;action=RULE_ACTION_ALERT&amp;filter=URL contains "/test" &amp; ParamValue contains {"testParam";"testVal"} &amp; HeaderValue contains {"headerName";"testVal"}'</t>
-  </si>
-  <si>
     <t>Translate?</t>
   </si>
   <si>
@@ -915,59 +905,6 @@
   <si>
     <t>Mapped Incapsula 
 Policy Predicates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-   "id":"35150",
-   "enabled":"true",
-   "name":"Validation Policy",
-   "action":"RULE_ACTION_ALERT",
-   "filter":" HeaderValue == {\"Accept-Language\";\"test\"}"
-}
-curl 'https://my.incapsula.com/api/prov/v1/sites/incapRules/add' --data 'api_id=20381&amp;api_key=a8e60b51-bc48-42fd-b1e5-a2104e5ad840&amp;site_id=5179568&amp;name=Validation Policy&amp;action=RULE_ACTION_ALERT&amp;filter= HeaderValue == {"Accept-Language";"test"}'
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-   "id":"35150",
-   "enabled":"true",
-   "name":"Validation Policy",
-   "action":"RULE_ACTION_ALERT",
-   "filter":" HeaderValue == {\"Content-Type\";\"test\"}"
-}
-curl 'https://my.incapsula.com/api/prov/v1/sites/incapRules/add' --data 'api_id=20381&amp;api_key=a8e60b51-bc48-42fd-b1e5-a2104e5ad840&amp;site_id=5179568&amp;name=Validation Policy&amp;action=RULE_ACTION_ALERT&amp;filter= HeaderValue == {"Content-Type";"test"}'
-</t>
-  </si>
-  <si>
-    <t>{
-   "id":"35150",
-   "enabled":"true",
-   "name":"Validation Cookie Policy",
-   "action":"RULE_ACTION_ALERT",
-   "filter":" CookieExists == \"MyCookie\""
-}
-curl 'https://my.incapsula.com/api/prov/v1/sites/incapRules/add' --data 'api_id=20381&amp;api_key=a8e60b51-bc48-42fd-b1e5-a2104e5ad840&amp;site_id=48295835&amp;name=Validation Cookie Policy&amp;action=RULE_ACTION_ALERT&amp;filter= CookieExists == "MyCookie"'</t>
-  </si>
-  <si>
-    <t>{
-   "id":"35962",
-   "enabled":"true",
-   "name":"Cookies Request",
-   "action":"RULE_ACTION_ALERT",
-   "filter":" CookieExists == \"MyCookie\""
-}
-curl 'https://my.incapsula.com/api/prov/v1/sites/incapRules/add' --data 'api_id=24588&amp;api_key=cfd1d196-d756-42ae-a3dc-a9698f2b2539&amp;site_id=1656631&amp;name=Cookies Request&amp;action=RULE_ACTION_ALERT&amp;filter= CookieExists == "MyCookie"'</t>
-  </si>
-  <si>
-    <t>{
-   "api_id":"24588",
-   "api_key":"cfd1d196-d756-42ae-a3dc-a9698f2b2539",
-   "site_id":"1656631",
-   "name":"Request",
-   "action":"RULE_ACTION_ALERT",
-   "filter":" URL == \"/index.html\""
-}
-curl 'https://my.incapsula.com/api/prov/v1/sites/incapRules/add' --data 'api_id=24588&amp;api_key=cfd1d196-d756-42ae-a3dc-a9698f2b2539&amp;site_id=1656631&amp;name=Request&amp;action=RULE_ACTION_ALERT&amp;filter= URL == "/index.html"'</t>
   </si>
   <si>
     <t>EQUALS (==) CookieExists == {"MyCookie"}
@@ -1004,17 +941,6 @@
 CONTAINS (contains) HeaderExists contains {"testHeader";"testval"}</t>
   </si>
   <si>
-    <t>{
-   "api_id":"24588",
-   "api_key":"cfd1d196-d756-42ae-a3dc-a9698f2b2539",
-   "site_id":"1656631",
-   "name":"Request",
-   "action":"RULE_ACTION_ALERT",
-   "filter":" HeaderExists == \"test\""
-}
-curl 'https://my.incapsula.com/api/prov/v1/sites/incapRules/add' --data 'api_id=21237&amp;api_key=31a63594-21e5-4af0-9e45-8d49540b9a16&amp;site_id=85651762&amp;name=Validation Policy&amp;action=RULE_ACTION_ALERT&amp;filter= HeaderExists == "test"'</t>
-  </si>
-  <si>
     <t>EQUALS (==) HeaderValue == {"Host";"www.test.com"}
 NOT_EQUALS (!=) HeaderValue != {"Host";"www.test.com"}
 NOT_CONTAINS (not-contains) HeaderValue not-contains {"Host";"^www.test.com"}
@@ -1025,29 +951,8 @@
 CONTAINS (contains) HeaderValue contains {"Host";"test"}</t>
   </si>
   <si>
-    <t xml:space="preserve">{
-   "id":"35150",
-   "enabled":"true",
-   "name":"Validation Policy",
-   "action":"RULE_ACTION_ALERT",
-   "filter":" HeaderValue == {\"Host\";\"www.test.com\"}"
-}
-curl 'https://my.incapsula.com/api/prov/v1/sites/incapRules/add' --data 'api_id=20381&amp;api_key=a8e60b51-bc48-42fd-b1e5-a2104e5ad840&amp;site_id=5179568&amp;name=Validation Policy&amp;action=RULE_ACTION_ALERT&amp;filter= HeaderValue == {"Host";"www.test.com"}'
-</t>
-  </si>
-  <si>
     <t>EQUALS (==) Method == GET, HEAD, OPTIONS, POST, PUT, TRACE
 NOT_EQUALS (!=) Method != GET, HEAD, OPTIONS, POST, PUT, TRACE</t>
-  </si>
-  <si>
-    <t>{
-   "id":"35090",
-   "enabled":"true",
-   "name":"Validation Policy",
-   "action":"RULE_ACTION_ALERT",
-   "filter":" Method == OPTIONS"
-}
-curl 'https://my.incapsula.com/api/prov/v1/sites/incapRules/add' --data 'api_id=21237&amp;api_key=31a63594-21e5-4af0-9e45-8d49540b9a16&amp;site_id=85651762&amp;name=Validation Policy&amp;action=RULE_ACTION_ALERT&amp;filter= Method == OPTIONS'</t>
   </si>
   <si>
     <t>EQUALS( == ) ParamValue == {"MyParamName";"TestVal"}
@@ -1074,17 +979,6 @@
 NOT_REGEX( !~= ) URL !~= {"ParamValue";"TestVal"}</t>
   </si>
   <si>
-    <t xml:space="preserve">
-{
-   "id":"35090",
-   "enabled":"true",
-   "name":"Validation Policy",
-   "action":"RULE_ACTION_ALERT",
-   "filter":" User-Agent == \"testVal\""
-}
-curl 'https://my.incapsula.com/api/prov/v1/sites/incapRules/add' --data 'api_id=24588&amp;api_key=cfd1d196-d756-42ae-a3dc-a9698f2b2539&amp;site_id=1656631&amp;name=Request&amp;action=RULE_ACTION_ALERT&amp;filter= User-Agent == "/index.html"'</t>
-  </si>
-  <si>
     <t>originatingSession</t>
   </si>
   <si>
@@ -2988,17 +2882,6 @@
   <si>
     <t>get-page-ip_rate
 post-ip_rate</t>
-  </si>
-  <si>
-    <t>{
-   "api_id":"21237",
-   "api_key":"31a63594-21e5-4af0-9e45-8d49540b9a16",
-   "site_id":"1951301",
-   "name":"Validation Policy",
-   "action":"RULE_ACTION_ALERT",
-   "filter":" CountryCode == JM"
-}
-curl 'https://my.incapsula.com/api/prov/v1/sites/incapRules/add' --data 'api_id=21237&amp;api_key=31a63594-21e5-4af0-9e45-8d49540b9a16&amp;site_id=1951301&amp;name=Validation Policy&amp;action=RULE_ACTION_ALERT&amp;filter= CountryCode == JM;HA;JN'</t>
   </si>
   <si>
     <t xml:space="preserve">EQUALS ( == )  CountryCode == AF;JA
@@ -3087,6 +2970,106 @@
 include, doesNotInclude, matchRegExp, doesNotMatchRegExp</t>
   </si>
   <si>
+    <t>EQUALS (==) ClientIP == 192.168.12.111;1.2.3.4;1.2.3.5-1.2.3.200;172.16.1.0/24
+NOT_EQUALS (!=) ClientIP != 192.168.12.111;1.2.3.4;1.2.3.5-1.2.3.200;172.16.1.0/24</t>
+  </si>
+  <si>
+    <t>{
+   "api_id":"20381",
+   "api_key":"**************************",
+   "site_id":"48295835",
+   "name":"Validation Policy",
+   "action":"RULE_ACTION_ALERT",
+   "filter":"URL contains \"/test\"  &amp;amp; ParamValue contains {\"testParam\";\"testVal\"} &amp;amp; HeaderValue contains {\"headerName\";\"testVal\"}"
+}
+curl 'https://my.incapsula.com/api/prov/v1/sites/incapRules/add' --data 'api_id=20381&amp;api_key=**************************&amp;site_id=48295835&amp;name=Validation Policy&amp;action=RULE_ACTION_ALERT&amp;filter=URL contains "/test" &amp; ParamValue contains {"testParam";"testVal"} &amp; HeaderValue contains {"headerName";"testVal"}'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+   "id":"35150",
+   "enabled":"true",
+   "name":"Validation Policy",
+   "action":"RULE_ACTION_ALERT",
+   "filter":" HeaderValue == {\"Accept-Language\";\"test\"}"
+}
+curl 'https://my.incapsula.com/api/prov/v1/sites/incapRules/add' --data 'api_id=20381&amp;api_key=**************************&amp;site_id=5179568&amp;name=Validation Policy&amp;action=RULE_ACTION_ALERT&amp;filter= HeaderValue == {"Accept-Language";"test"}'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+   "id":"35150",
+   "enabled":"true",
+   "name":"Validation Policy",
+   "action":"RULE_ACTION_ALERT",
+   "filter":" HeaderValue == {\"Content-Type\";\"test\"}"
+}
+curl 'https://my.incapsula.com/api/prov/v1/sites/incapRules/add' --data 'api_id=20381&amp;api_key=**************************&amp;site_id=5179568&amp;name=Validation Policy&amp;action=RULE_ACTION_ALERT&amp;filter= HeaderValue == {"Content-Type";"test"}'
+</t>
+  </si>
+  <si>
+    <t>{
+   "id":"35150",
+   "enabled":"true",
+   "name":"Validation Cookie Policy",
+   "action":"RULE_ACTION_ALERT",
+   "filter":" CookieExists == \"MyCookie\""
+}
+curl 'https://my.incapsula.com/api/prov/v1/sites/incapRules/add' --data 'api_id=20381&amp;api_key=**************************&amp;site_id=48295835&amp;name=Validation Cookie Policy&amp;action=RULE_ACTION_ALERT&amp;filter= CookieExists == "MyCookie"'</t>
+  </si>
+  <si>
+    <t>{
+   "id":"35962",
+   "enabled":"true",
+   "name":"Cookies Request",
+   "action":"RULE_ACTION_ALERT",
+   "filter":" CookieExists == \"MyCookie\""
+}
+curl 'https://my.incapsula.com/api/prov/v1/sites/incapRules/add' --data 'api_id=24588&amp;api_key=**************************&amp;site_id=1656631&amp;name=Cookies Request&amp;action=RULE_ACTION_ALERT&amp;filter= CookieExists == "MyCookie"'</t>
+  </si>
+  <si>
+    <t>{
+   "api_id":"24588",
+   "api_key":"**************************",
+   "site_id":"1656631",
+   "name":"Request",
+   "action":"RULE_ACTION_ALERT",
+   "filter":" URL == \"/index.html\""
+}
+curl 'https://my.incapsula.com/api/prov/v1/sites/incapRules/add' --data 'api_id=24588&amp;api_key=**************************&amp;site_id=1656631&amp;name=Request&amp;action=RULE_ACTION_ALERT&amp;filter= URL == "/index.html"'</t>
+  </si>
+  <si>
+    <t>{
+   "api_id":"24588",
+   "api_key":"**************************",
+   "site_id":"1656631",
+   "name":"Request",
+   "action":"RULE_ACTION_ALERT",
+   "filter":" HeaderExists == \"test\""
+}
+curl 'https://my.incapsula.com/api/prov/v1/sites/incapRules/add' --data 'api_id=21237&amp;api_key=**************************&amp;site_id=85651762&amp;name=Validation Policy&amp;action=RULE_ACTION_ALERT&amp;filter= HeaderExists == "test"'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+   "id":"35150",
+   "enabled":"true",
+   "name":"Validation Policy",
+   "action":"RULE_ACTION_ALERT",
+   "filter":" HeaderValue == {\"Host\";\"www.test.com\"}"
+}
+curl 'https://my.incapsula.com/api/prov/v1/sites/incapRules/add' --data 'api_id=20381&amp;api_key=**************************&amp;site_id=5179568&amp;name=Validation Policy&amp;action=RULE_ACTION_ALERT&amp;filter= HeaderValue == {"Host";"www.test.com"}'
+</t>
+  </si>
+  <si>
+    <t>{
+   "id":"35090",
+   "enabled":"true",
+   "name":"Validation Policy",
+   "action":"RULE_ACTION_ALERT",
+   "filter":" Method == OPTIONS"
+}
+curl 'https://my.incapsula.com/api/prov/v1/sites/incapRules/add' --data 'api_id=21237&amp;api_key=**************************&amp;site_id=85651762&amp;name=Validation Policy&amp;action=RULE_ACTION_ALERT&amp;filter= Method == OPTIONS'</t>
+  </si>
+  <si>
     <t>{
    "id":"35090",
    "enabled":"true",
@@ -3103,7 +3086,7 @@
   ParamValue ~= {"ParamValue";"TestVal"} &amp; 
   ParamValue !~= {"ParamValue";"TestVal"}"
 }
-curl 'https://my.incapsula.com/api/prov/v1/sites/incapRules/add' --data 'api_id=21237&amp;api_key=31a63594-21e5-4af0-9e45-8d49540b9a16&amp;site_id=1951301&amp;name=Validation Policy&amp;action=RULE_ACTION_ALERT&amp;filter= ParamValue == {"MyParamName";"TestVal"} &amp; ParamValue != {"MyParamName";"TestVal"} &amp; ParamValue not-contains {"MyParamName";"TestVal"} &amp; ParamValue contains {"^MyParamName";"TestVal"} &amp; ParamValue contains {"MyParamName$";"TestVal"} &amp; ParamValue not-contains {"^MyParamName";"TestVal"} &amp; ParamValue not-contains {"MyParamName$";"TestVal"} &amp; ParamValue contains {"MyParamName";"TestVal"} &amp; ParamValue ~= {"ParamValue";"TestVal"} &amp; ParamValue !~= {"ParamValue";"TestVal"}''
+curl 'https://my.incapsula.com/api/prov/v1/sites/incapRules/add' --data 'api_id=21237&amp;api_key=**************************&amp;site_id=1951301&amp;name=Validation Policy&amp;action=RULE_ACTION_ALERT&amp;filter= ParamValue == {"MyParamName";"TestVal"} &amp; ParamValue != {"MyParamName";"TestVal"} &amp; ParamValue not-contains {"MyParamName";"TestVal"} &amp; ParamValue contains {"^MyParamName";"TestVal"} &amp; ParamValue contains {"MyParamName$";"TestVal"} &amp; ParamValue not-contains {"^MyParamName";"TestVal"} &amp; ParamValue not-contains {"MyParamName$";"TestVal"} &amp; ParamValue contains {"MyParamName";"TestVal"} &amp; ParamValue ~= {"ParamValue";"TestVal"} &amp; ParamValue !~= {"ParamValue";"TestVal"}''
 ParamExists == \"test\"</t>
   </si>
   <si>
@@ -3114,22 +3097,40 @@
    "action":"RULE_ACTION_ALERT",
    "filter":" HeaderValue == {\"Referer\";\"www.test.com\"}"
 }
-curl 'https://my.incapsula.com/api/prov/v1/sites/incapRules/add' --data 'api_id=20381&amp;api_key=a8e60b51-bc48-42fd-b1e5-a2104e5ad840&amp;site_id=5179568&amp;name=Validation Policy&amp;action=RULE_ACTION_ALERT&amp;filter= HeaderValue == {"Referer";"www.test.com"}'
+curl 'https://my.incapsula.com/api/prov/v1/sites/incapRules/add' --data 'api_id=20381&amp;api_key=**************************&amp;site_id=5179568&amp;name=Validation Policy&amp;action=RULE_ACTION_ALERT&amp;filter= HeaderValue == {"Referer";"www.test.com"}'
 </t>
   </si>
   <si>
-    <t>EQUALS (==) ClientIP == 192.168.12.111;1.2.3.4;1.2.3.5-1.2.3.200;172.16.1.0/24
-NOT_EQUALS (!=) ClientIP != 192.168.12.111;1.2.3.4;1.2.3.5-1.2.3.200;172.16.1.0/24</t>
+    <t xml:space="preserve">
+{
+   "id":"35090",
+   "enabled":"true",
+   "name":"Validation Policy",
+   "action":"RULE_ACTION_ALERT",
+   "filter":" User-Agent == \"testVal\""
+}
+curl 'https://my.incapsula.com/api/prov/v1/sites/incapRules/add' --data 'api_id=24588&amp;api_key=**************************&amp;site_id=1656631&amp;name=Request&amp;action=RULE_ACTION_ALERT&amp;filter= User-Agent == "/index.html"'</t>
+  </si>
+  <si>
+    <t>{
+   "api_id":"21237",
+   "api_key":"**************************",
+   "site_id":"1951301",
+   "name":"Validation Policy",
+   "action":"RULE_ACTION_ALERT",
+   "filter":" CountryCode == JM"
+}
+curl 'https://my.incapsula.com/api/prov/v1/sites/incapRules/add' --data 'api_id=21237&amp;api_key=**************************&amp;site_id=1951301&amp;name=Validation Policy&amp;action=RULE_ACTION_ALERT&amp;filter= CountryCode == JM;HA;JN'</t>
   </si>
   <si>
     <t>{"id":"41140","enabled":"true","name":"BA IP Block2","action":"RULE_ACTION_BLOCK","filter":"( ClientIP == 192.168.12.111;1.2.3.4;1.2.3.5-1.2.3.200;172.16.1.0/24) "}
-curl 'https://my.incapsula.com/api/prov/v1/sites/incapRules/add' --data 'api_id=your_api_id_here&amp;api_key=your_api_key_here&amp;site_id=your_site_id_here&amp;name=BA IP Block&amp;action=RULE_ACTION_BLOCK&amp;filter=( ClientIP == 192.168.12.111;1.2.3.4;1.2.3.5-1.2.3.200;172.16.1.0/24) '</t>
+curl 'https://my.incapsula.com/api/prov/v1/sites/incapRules/add' --data 'api_id=your_api_id_here&amp;api_key=your_api_key_here&amp;site_id=your_site_id_here&amp;name=BA IP Block&amp;action=RULE_ACTION_BLOCK&amp;filter=( ClientIP == 192.168.12.111;1.2.3.4;1.2.3.5-1.2.3.200;172.16.1.0/24) 'ꎣꎣꎣꎣꎣꎣꎣꎣꎣꎣꎣꎣꎣꎣꎣꎣꎣꎣꎣꎣꎣꎣꖥꖥ_xFFFF__xFFFF_႙潬߹က_x0002__xFFFF__xFFFF__xFFFF_ঐ羖</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -3585,12 +3586,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:B136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0.25"/>
@@ -3612,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3620,10 +3622,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
@@ -3636,7 +3638,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3644,7 +3646,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3652,7 +3654,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3660,7 +3662,7 @@
         <v>55</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3668,7 +3670,7 @@
         <v>56</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3676,26 +3678,26 @@
         <v>57</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>58</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>59</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>60</v>
       </c>
@@ -3708,79 +3710,79 @@
         <v>61</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>62</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>63</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>64</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>65</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>66</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>67</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>68</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>69</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3788,10 +3790,10 @@
         <v>71</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>72</v>
       </c>
@@ -3804,31 +3806,31 @@
         <v>73</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>74</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -3836,7 +3838,7 @@
         <v>75</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -3844,7 +3846,7 @@
         <v>76</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -3852,39 +3854,39 @@
         <v>77</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -3892,7 +3894,7 @@
         <v>12</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -3900,7 +3902,7 @@
         <v>13</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -3908,7 +3910,7 @@
         <v>14</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -3916,7 +3918,7 @@
         <v>15</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -3924,7 +3926,7 @@
         <v>16</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -3932,7 +3934,7 @@
         <v>17</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -3940,7 +3942,7 @@
         <v>18</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -3948,7 +3950,7 @@
         <v>19</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -3956,7 +3958,7 @@
         <v>20</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -3964,7 +3966,7 @@
         <v>21</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -3972,7 +3974,7 @@
         <v>22</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -3980,7 +3982,7 @@
         <v>23</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -3988,7 +3990,7 @@
         <v>24</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -3996,15 +3998,15 @@
         <v>25</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -4012,18 +4014,18 @@
         <v>79</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>80</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>81</v>
       </c>
@@ -4036,7 +4038,7 @@
         <v>82</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -4044,39 +4046,39 @@
         <v>83</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
         <v>84</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>85</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>86</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>87</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -4084,7 +4086,7 @@
         <v>88</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -4092,7 +4094,7 @@
         <v>89</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -4100,39 +4102,39 @@
         <v>90</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>91</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>92</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>93</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
         <v>94</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -4140,7 +4142,7 @@
         <v>95</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -4148,7 +4150,7 @@
         <v>96</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -4156,26 +4158,26 @@
         <v>97</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
         <v>98</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
         <v>28</v>
       </c>
@@ -4183,12 +4185,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
         <v>29</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -4196,7 +4198,7 @@
         <v>30</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -4204,7 +4206,7 @@
         <v>31</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -4212,7 +4214,7 @@
         <v>32</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -4220,31 +4222,31 @@
         <v>33</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
         <v>34</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
         <v>35</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
         <v>36</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -4252,296 +4254,302 @@
         <v>37</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B84" s="13" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B85" s="13" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B86" s="13" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B87" s="13" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B88" s="13" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B89" s="13" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B90" s="13" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B91" s="13" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B92" s="13" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B93" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B94" s="13" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B95" s="13" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B96" s="13" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" s="13" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" s="13" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" s="13" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" s="13" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" s="13" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" s="13" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" s="13" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" s="13" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" s="13" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" s="13" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" s="13" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108" s="13" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B109" s="13" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" s="13" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111" s="13" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B112" s="13" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" s="13" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" s="13" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" s="13" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" s="13" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" s="13" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B118" s="13" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" s="13" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120" s="13" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121" s="13" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" s="13" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123" s="13" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B124" s="13" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125" s="13" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B126" s="13" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B127" s="13" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B128" s="13" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B129" s="13" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B130" s="13" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B131" s="13" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B132" s="13" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B133" s="13" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B134" s="13" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B135" s="13" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B136" s="13" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B136"/>
+  <autoFilter ref="A1:B136" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <customFilters>
+        <customFilter val="*rate*"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4566,7 +4574,7 @@
         <v>100</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>99</v>
@@ -4575,7 +4583,7 @@
         <v>187</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="96" x14ac:dyDescent="0.2">
@@ -4590,7 +4598,7 @@
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -4603,7 +4611,7 @@
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -4616,7 +4624,7 @@
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -4629,7 +4637,7 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" ht="112" x14ac:dyDescent="0.2">
@@ -4644,7 +4652,7 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" ht="144" x14ac:dyDescent="0.2">
@@ -4657,7 +4665,7 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="144" x14ac:dyDescent="0.2">
@@ -4670,30 +4678,30 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="409" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>117</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>850</v>
+        <v>839</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>848</v>
+        <v>837</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>849</v>
+        <v>838</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>188</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>189</v>
+        <v>841</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="208" x14ac:dyDescent="0.2">
@@ -4713,10 +4721,10 @@
         <v>188</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>194</v>
+        <v>842</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="208" x14ac:dyDescent="0.2">
@@ -4736,10 +4744,10 @@
         <v>188</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>195</v>
+        <v>843</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="224" x14ac:dyDescent="0.2">
@@ -4756,16 +4764,16 @@
         <v>49</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>196</v>
+        <v>844</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" ht="192" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1" ht="176" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -4779,16 +4787,16 @@
         <v>49</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>197</v>
+        <v>845</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="208" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="192" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>12</v>
       </c>
@@ -4802,16 +4810,16 @@
         <v>40</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>198</v>
+        <v>846</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="208" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="192" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -4825,13 +4833,13 @@
         <v>46</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>203</v>
+        <v>847</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="208" x14ac:dyDescent="0.2">
@@ -4851,10 +4859,10 @@
         <v>188</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>195</v>
+        <v>843</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="208" x14ac:dyDescent="0.2">
@@ -4871,16 +4879,16 @@
         <v>45</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>205</v>
+        <v>848</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="192" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="176" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -4894,16 +4902,16 @@
         <v>44</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>207</v>
+        <v>849</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="409" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -4917,13 +4925,13 @@
         <v>181</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="3" customFormat="1" ht="112" x14ac:dyDescent="0.2">
@@ -4936,7 +4944,7 @@
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="3" customFormat="1" ht="112" x14ac:dyDescent="0.2">
@@ -4950,7 +4958,7 @@
       <c r="D21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="208" x14ac:dyDescent="0.2">
@@ -4967,16 +4975,16 @@
         <v>45</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="208" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="192" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -4990,16 +4998,16 @@
         <v>40</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>198</v>
+        <v>846</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="208" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="192" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -5013,13 +5021,13 @@
         <v>39</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>210</v>
+        <v>852</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="3" customFormat="1" ht="128" x14ac:dyDescent="0.2">
@@ -5032,7 +5040,7 @@
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="3" customFormat="1" ht="112" x14ac:dyDescent="0.2">
@@ -5045,7 +5053,7 @@
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
@@ -5058,7 +5066,7 @@
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="96" x14ac:dyDescent="0.2">
@@ -5066,7 +5074,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>125</v>
@@ -5075,10 +5083,10 @@
         <v>43</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="208" x14ac:dyDescent="0.2">
@@ -5086,22 +5094,22 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>846</v>
+        <v>835</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>847</v>
+        <v>836</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="96" x14ac:dyDescent="0.2">
@@ -5109,17 +5117,17 @@
         <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="E30" s="2"/>
       <c r="G30" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="3" customFormat="1" ht="96" x14ac:dyDescent="0.2">
@@ -5127,7 +5135,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>125</v>
@@ -5138,7 +5146,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -5151,7 +5159,7 @@
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="3" customFormat="1" ht="128" x14ac:dyDescent="0.2">
@@ -5167,7 +5175,7 @@
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="3" customFormat="1" ht="304" x14ac:dyDescent="0.2">
@@ -5185,7 +5193,7 @@
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="3" customFormat="1" ht="128" x14ac:dyDescent="0.2">
@@ -5198,7 +5206,7 @@
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="3" customFormat="1" ht="160" x14ac:dyDescent="0.2">
@@ -5211,10 +5219,10 @@
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="208" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="192" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -5228,16 +5236,16 @@
         <v>48</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>845</v>
+        <v>834</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>844</v>
+        <v>853</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="144" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>34</v>
       </c>
@@ -5251,13 +5259,13 @@
         <v>50</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>853</v>
+        <v>840</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>854</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="3" customFormat="1" ht="400" x14ac:dyDescent="0.2">
@@ -5270,7 +5278,7 @@
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="3" customFormat="1" ht="112" x14ac:dyDescent="0.2">
@@ -5283,7 +5291,7 @@
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
@@ -5296,7 +5304,7 @@
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
@@ -5309,7 +5317,7 @@
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="144" x14ac:dyDescent="0.2">
@@ -5320,7 +5328,7 @@
         <v>177</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="160" x14ac:dyDescent="0.2">
@@ -5337,7 +5345,7 @@
         <v>45</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -5347,7 +5355,7 @@
       <c r="B45" s="7"/>
       <c r="F45" s="4"/>
       <c r="G45" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -5361,7 +5369,7 @@
         <v>45</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -5375,7 +5383,7 @@
         <v>49</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -5389,7 +5397,7 @@
         <v>45</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -5399,7 +5407,7 @@
       <c r="B49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -5413,7 +5421,7 @@
         <v>40</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -5427,7 +5435,7 @@
         <v>46</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -5441,7 +5449,7 @@
         <v>45</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -5455,7 +5463,7 @@
         <v>44</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -5469,7 +5477,7 @@
         <v>42</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -5483,7 +5491,7 @@
         <v>50</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -5497,7 +5505,7 @@
         <v>41</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -5511,7 +5519,7 @@
         <v>41</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -5525,7 +5533,7 @@
         <v>41</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -5535,7 +5543,7 @@
       <c r="B59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -5549,7 +5557,7 @@
         <v>50</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -5563,7 +5571,7 @@
         <v>40</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -5577,7 +5585,7 @@
         <v>39</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="63" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -5587,7 +5595,7 @@
       <c r="B63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="144" x14ac:dyDescent="0.2">
@@ -5598,7 +5606,7 @@
         <v>177</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="144" x14ac:dyDescent="0.2">
@@ -5612,7 +5620,7 @@
         <v>176</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="66" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -5622,7 +5630,7 @@
       <c r="B66" s="7"/>
       <c r="F66" s="4"/>
       <c r="G66" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -5636,7 +5644,7 @@
         <v>45</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -5650,7 +5658,7 @@
         <v>49</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -5664,7 +5672,7 @@
         <v>45</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="70" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -5674,7 +5682,7 @@
       <c r="B70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -5688,7 +5696,7 @@
         <v>40</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -5702,7 +5710,7 @@
         <v>46</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -5716,7 +5724,7 @@
         <v>45</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -5730,7 +5738,7 @@
         <v>44</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -5744,7 +5752,7 @@
         <v>42</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -5758,7 +5766,7 @@
         <v>50</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -5772,7 +5780,7 @@
         <v>41</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -5786,7 +5794,7 @@
         <v>41</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -5800,7 +5808,7 @@
         <v>41</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="80" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -5810,7 +5818,7 @@
       <c r="B80" s="4"/>
       <c r="F80" s="4"/>
       <c r="G80" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -5824,7 +5832,7 @@
         <v>50</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
@@ -5838,7 +5846,7 @@
         <v>40</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
@@ -5852,7 +5860,7 @@
         <v>39</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="84" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -5862,18 +5870,18 @@
       <c r="B84" s="4"/>
       <c r="F84" s="4"/>
       <c r="G84" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G84"/>
+  <autoFilter ref="A1:G84" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B249"/>
   <sheetViews>
     <sheetView topLeftCell="A198" workbookViewId="0">
@@ -5887,1998 +5895,1998 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="B1" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="B2" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="B3" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="B4" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="B5" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="B6" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="B7" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="B8" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="B9" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="B10" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="B11" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="B12" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="B13" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="B14" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="B15" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="B16" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="B17" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="B18" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="B19" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="B20" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="B21" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="B22" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="B23" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="B24" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="B25" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="B26" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="B27" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="B28" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="B29" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="B30" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="B31" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="B32" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="B33" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="B34" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="B35" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="B36" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="B37" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="B38" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="B39" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="B40" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="B41" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="B42" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="B43" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="B44" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="B45" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="B46" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="B47" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="B48" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="B49" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="B50" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="B51" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="B52" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="B53" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="B54" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="B55" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="B56" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="B57" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="B58" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="B59" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="B60" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="B61" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="B62" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="B63" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="B64" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B65" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="B66" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B67" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="B68" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="B69" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="B70" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="B71" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="B72" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="B73" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="B74" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="B75" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="B76" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="B77" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="B78" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="B79" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="B80" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="B81" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="B82" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="B83" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="B84" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="B85" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="B86" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="B87" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="B88" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="B89" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="B90" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="B91" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="B92" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="B93" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="B94" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="B95" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="B96" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="B97" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="B98" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="B99" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="B100" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="B101" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="B102" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="B103" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="B104" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="B105" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="B106" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="B107" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="B108" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="B109" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="B110" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="B111" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="B112" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="B113" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="B114" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="B115" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="B116" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="B117" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="B118" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="B119" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="B120" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="B121" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="B122" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="B123" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="B124" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="B125" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="B126" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="B127" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="B128" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="B129" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="B130" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="B131" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="B132" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="B133" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="B134" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="B135" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="B136" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="B137" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="B138" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="B139" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="B140" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="B141" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="B142" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="B143" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="B144" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="B145" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="B146" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="B147" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="B148" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="B149" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="B150" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="B151" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="B152" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="B153" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="B154" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="B155" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="B156" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="B157" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="B158" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="B159" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="B160" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="B161" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="B162" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="B163" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="B164" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="B165" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="B166" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="B167" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="B168" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="B169" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="B170" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="B171" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B172" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="B173" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="B174" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="B175" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="B176" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="B177" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B178" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="B179" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="B180" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="B181" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="B182" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="B183" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B184" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="B185" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="B186" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="B187" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="B188" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="B189" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="B190" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="B191" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="B192" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="B193" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="B194" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="B195" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="B196" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="B197" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="B198" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="B199" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="B200" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="B201" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="B202" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="B203" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="B204" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="B205" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="B206" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="B207" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="B208" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="B209" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="B210" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="B211" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="B212" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="B213" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="B214" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="B215" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="B216" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="B217" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="B218" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="B219" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="B220" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="B221" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="B222" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
       <c r="B223" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="B224" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="B225" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="B226" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="B227" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="B228" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="B229" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="B230" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="B231" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
       <c r="B232" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="B233" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="B234" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="B235" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
       <c r="B236" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
       <c r="B237" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="B238" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
       <c r="B239" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="B240" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="B241" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="B242" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
       <c r="B243" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="B244" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="B245" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="B246" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="B247" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="B248" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="B249" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B249"/>
+  <autoFilter ref="A1:B249" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>